--- a/MSExcel.xlsx
+++ b/MSExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xudo61289/Desktop/shis63032-Project_Office365/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50ABB033-0420-A041-99D5-A6AE1D4E987D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{643B333C-5D67-754B-B8DA-35178EBAB277}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16280" activeTab="3" xr2:uid="{2F02F7AD-4863-9948-B765-C2584E097A67}"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{2F02F7AD-4863-9948-B765-C2584E097A67}"/>
   </bookViews>
   <sheets>
     <sheet name="Equations" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2101203A-A79A-4C4B-96E2-4416962F4DAD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8BF728-2753-7E40-98D3-7B6630F78AEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
